--- a/biology/Zoologie/Crioulo_(cheval)/Crioulo_(cheval).xlsx
+++ b/biology/Zoologie/Crioulo_(cheval)/Crioulo_(cheval).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Crioulo (portugais : Crioulo brasileiro) est la variété de chevaux Criollo propre au Brésil. Plus proche du Barbe, il présente un profil convexe et une croupe inclinée. Il est surtout monté en équitation de travail.
@@ -512,11 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il constitue la variété brésilienne des chevaux Criollo d'Amérique du Sud[1],[2]. 
-Dénomination
-Bonnie Lou Hendricks, de l'Université de l'Oklahoma, cite le nom « Nordestin » (Northeastern / Nordestino) comme une autre dénomination pour la race Crioulo (2007)[3], de même que le guide Delachaux (2014)[4], dont l'auteur a probablement recopié Hendricks. Cependant, CAB International[1] et la base de données DAD-IS[2] distinguent bien le Crioulo du Nordestin[5]. De plus, les régions d'élevage ne sont pas les mêmes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il constitue la variété brésilienne des chevaux Criollo d'Amérique du Sud,. 
 </t>
         </is>
       </c>
@@ -542,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le guide Delachaux indique une taille moyenne de 1,42 m chez les juments et 1,43 m[4]. Par comparaison aux autres variétés de Criollo, il est réputé plus léger et morphologiquement plus proche du Barbe[4]. La tête, courte, présente un profil convexe[4]. La croupe est légèrement inclinée[4].
-La robe la plus fréquente est le bai, souvent avec des marques primitives[4].
-La sélection de la race est assurée par la Crioulo Horse Brazilian Breeders Association[2].
-Le Crioulo a fait l'objet d'une étude visant à déterminer la présence de la mutation du gène DMRT3 à l'origine des allures supplémentaire : l'étude de 21 sujets a permis de détecter la présence de cette mutation chez 2,4 % d'entre eux, et de confirmer l’existence de chevaux avec des allures supplémentaires parmi la race[6]. 
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonnie Lou Hendricks, de l'Université de l'Oklahoma, cite le nom « Nordestin » (Northeastern / Nordestino) comme une autre dénomination pour la race Crioulo (2007), de même que le guide Delachaux (2014), dont l'auteur a probablement recopié Hendricks. Cependant, CAB International et la base de données DAD-IS distinguent bien le Crioulo du Nordestin. De plus, les régions d'élevage ne sont pas les mêmes.
 </t>
         </is>
       </c>
@@ -576,12 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces chevaux sont utilisés sous la selle, en particulier pour le travail du bétail[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le guide Delachaux indique une taille moyenne de 1,42 m chez les juments et 1,43 m. Par comparaison aux autres variétés de Criollo, il est réputé plus léger et morphologiquement plus proche du Barbe. La tête, courte, présente un profil convexe. La croupe est légèrement inclinée.
+La robe la plus fréquente est le bai, souvent avec des marques primitives.
+La sélection de la race est assurée par la Crioulo Horse Brazilian Breeders Association.
+Le Crioulo a fait l'objet d'une étude visant à déterminer la présence de la mutation du gène DMRT3 à l'origine des allures supplémentaire : l'étude de 21 sujets a permis de détecter la présence de cette mutation chez 2,4 % d'entre eux, et de confirmer l’existence de chevaux avec des allures supplémentaires parmi la race. 
 </t>
         </is>
       </c>
@@ -607,12 +627,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces chevaux sont utilisés sous la selle, en particulier pour le travail du bétail.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crioulo_(cheval)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crioulo_(cheval)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race est localisée dans le sud du Brésil, ainsi que dans le centre-ouest[2]. Elle est numériquement très nombreuse, 68 000 sujets ayant été recensés en 1991[2]. L'étude menée par l'Université d'Uppsala, publiée en août 2010 pour la FAO, signale le Crioulo comme race locale d'Amérique du Sud qui n'est pas menacée d'extinction[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race est localisée dans le sud du Brésil, ainsi que dans le centre-ouest. Elle est numériquement très nombreuse, 68 000 sujets ayant été recensés en 1991. L'étude menée par l'Université d'Uppsala, publiée en août 2010 pour la FAO, signale le Crioulo comme race locale d'Amérique du Sud qui n'est pas menacée d'extinction.
 </t>
         </is>
       </c>
